--- a/doc/CDC COVID-19 Vaccination Reporting Specification_with_HL7_Mapping.xlsx
+++ b/doc/CDC COVID-19 Vaccination Reporting Specification_with_HL7_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kboone\git\CDC_IIS_Open_Tools\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14364005-ADA2-4DC5-B98E-D66BF0F9A131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2ECCE4D-7224-4585-AD7C-B8968702779A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="491" firstSheet="4" activeTab="4" xr2:uid="{345F94AC-3EB1-4843-98B7-0CF9FCF4D743}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="491" firstSheet="4" activeTab="4" xr2:uid="{345F94AC-3EB1-4843-98B7-0CF9FCF4D743}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary Background" sheetId="28" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Categories!$A$4:$N$61</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'CDC COVID-19 Vaccination Report'!$A$2:$I$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'CDC COVID-19 Vaccination Report'!$A$3:$K$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ext. Data Sources'!$A$3:$F$40</definedName>
     <definedName name="_ftn1" localSheetId="3">Instructions!$A$19</definedName>
     <definedName name="_ftnref1" localSheetId="3">Instructions!$A$8</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="830">
   <si>
     <t>COVID-19 Vaccination IIS Data Dictionary</t>
   </si>
@@ -2866,6 +2866,15 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Deidentified</t>
+  </si>
+  <si>
+    <t>Required. Set to the value 'I'</t>
+  </si>
+  <si>
+    <t>Identified (Proposed)</t>
   </si>
 </sst>
 </file>
@@ -3282,7 +3291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -3508,12 +3517,23 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3526,7 +3546,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3539,7 +3561,20 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -3547,7 +3582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3841,9 +3876,6 @@
     <xf numFmtId="0" fontId="35" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3919,53 +3951,62 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6458,122 +6499,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
     </row>
     <row r="4" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
     </row>
     <row r="5" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
     </row>
     <row r="6" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
     </row>
     <row r="7" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
     </row>
     <row r="8" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0"/>
@@ -7529,216 +7570,216 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="194.5703125" style="109" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="106"/>
+    <col min="1" max="1" width="194.5703125" style="108" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7109375" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="109" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="110" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+    <row r="3" spans="1:1" s="112" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="106" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="113" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
+    <row r="4" spans="1:1" s="112" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="106" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="113" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107" t="s">
+    <row r="5" spans="1:1" s="112" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="106" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="113" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
+    <row r="6" spans="1:1" s="112" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="106" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="113" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107" t="s">
+    <row r="7" spans="1:1" s="112" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="106" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="111" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="106" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="106" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="113" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="106" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="106" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="106" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="113" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="106" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="113" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="106" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
+      <c r="A19" s="106"/>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="111" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="106" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="119" t="s">
+      <c r="A22" s="118" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="113" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="107" t="s">
+      <c r="A24" s="106" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="106" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="107"/>
+      <c r="A26" s="106"/>
     </row>
     <row r="27" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="112" t="s">
+      <c r="A27" s="111" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="114" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="109" t="s">
+      <c r="A29" s="108" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="109" t="s">
+      <c r="A30" s="108" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="114" t="s">
+      <c r="A31" s="113" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="107" t="s">
+      <c r="A32" s="106" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="109" t="s">
+      <c r="A34" s="108" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
+      <c r="A35" s="107"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="115" t="s">
+      <c r="A36" s="114" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="109" t="s">
+      <c r="A37" s="108" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="116" t="s">
+      <c r="A38" s="115" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="120" t="s">
+      <c r="A39" s="119" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="115" t="s">
+      <c r="A41" s="114" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="109" t="s">
+      <c r="A42" s="108" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="109" t="s">
+      <c r="A43" s="108" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="121" t="s">
+      <c r="A44" s="120" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7750,11 +7791,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9023E05B-6C0B-495B-B56F-D7589B512959}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="A1:I1"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7763,1795 +7804,2098 @@
     <col min="2" max="3" width="35.42578125" style="89" customWidth="1"/>
     <col min="4" max="4" width="59.85546875" style="89" customWidth="1"/>
     <col min="5" max="5" width="50.42578125" style="89" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" style="89" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="89" customWidth="1"/>
-    <col min="8" max="9" width="35.42578125" style="89" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" customWidth="1"/>
-    <col min="11" max="11" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33" customWidth="1"/>
+    <col min="6" max="8" width="49.42578125" style="89" customWidth="1"/>
+    <col min="9" max="9" width="44.7109375" style="89" customWidth="1"/>
+    <col min="10" max="11" width="35.42578125" style="89" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" customWidth="1"/>
+    <col min="13" max="13" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="90" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:14" s="90" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="142" t="s">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143" t="s">
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="143"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="133" t="s">
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140" t="s">
         <v>743</v>
       </c>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134"/>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+    </row>
+    <row r="2" spans="1:14" s="90" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="143" t="s">
+        <v>827</v>
+      </c>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144" t="s">
+        <v>829</v>
+      </c>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B3" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C3" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D3" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="E3" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F3" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G3" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="J3" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="K3" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="J2" s="145" t="s">
+      <c r="L3" s="130" t="s">
         <v>744</v>
       </c>
-      <c r="K2" s="145" t="s">
+      <c r="M3" s="130" t="s">
         <v>745</v>
       </c>
-      <c r="L2" s="145" t="s">
+      <c r="N3" s="130" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="122">
+    <row r="4" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="121">
         <v>1</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B4" s="122" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C4" s="123" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="D4" s="124" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E4" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F4" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="117" t="s">
+      <c r="G4" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="104" t="s">
+      <c r="J4" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="I3" s="97">
+      <c r="K4" s="97">
         <v>568971356</v>
       </c>
-      <c r="J3" s="146" t="s">
+      <c r="L4" s="131" t="s">
         <v>753</v>
       </c>
-      <c r="K3" s="146" t="s">
+      <c r="M4" s="131" t="s">
         <v>754</v>
       </c>
-      <c r="L3" s="146" t="s">
+      <c r="N4" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="90" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="122">
+    <row r="5" spans="1:14" s="90" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="121">
         <v>2</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B5" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C5" s="123" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="127" t="s">
+      <c r="D5" s="126" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="126" t="s">
+      <c r="E5" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F5" s="98" t="s">
         <v>182</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G5" s="125" t="s">
+        <v>828</v>
+      </c>
+      <c r="H5" s="125" t="s">
+        <v>828</v>
+      </c>
+      <c r="I5" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="104" t="s">
+      <c r="J5" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="94" t="s">
+      <c r="K5" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="146" t="s">
+      <c r="L5" s="131" t="s">
         <v>755</v>
       </c>
-      <c r="K4" s="146" t="s">
+      <c r="M5" s="131" t="s">
         <v>756</v>
       </c>
-      <c r="L4" s="146" t="s">
+      <c r="N5" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="122">
+    <row r="6" spans="1:14" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="121">
         <v>3</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B6" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C6" s="123" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="127" t="s">
+      <c r="D6" s="126" t="s">
         <v>188</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E6" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="F6" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="G5" s="117" t="s">
+      <c r="G6" s="125" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="H5" s="104" t="s">
+      <c r="J6" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="I5" s="94"/>
-      <c r="J5" s="146" t="s">
+      <c r="K6" s="94"/>
+      <c r="L6" s="131" t="s">
         <v>757</v>
       </c>
-      <c r="K5" s="146" t="s">
+      <c r="M6" s="131" t="s">
         <v>758</v>
       </c>
-      <c r="L5" s="146" t="s">
+      <c r="N6" s="131" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="122">
+    <row r="7" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="121">
         <v>4</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B7" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C7" s="123" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="127" t="s">
+      <c r="D7" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="126" t="s">
+      <c r="E7" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="98" t="s">
+      <c r="F7" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="G6" s="117" t="s">
+      <c r="G7" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="104" t="s">
+      <c r="J7" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="I6" s="94">
+      <c r="K7" s="94">
         <v>135498413</v>
       </c>
-      <c r="J6" s="146" t="s">
+      <c r="L7" s="131" t="s">
         <v>760</v>
       </c>
-      <c r="K6" s="146" t="s">
+      <c r="M7" s="131" t="s">
         <v>758</v>
       </c>
-      <c r="L6" s="146" t="s">
+      <c r="N7" s="131" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="122">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="121">
         <v>5</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B8" s="122" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C8" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="D8" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="126" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" s="98" t="s">
-        <v>196</v>
-      </c>
-      <c r="G7" s="117" t="s">
-        <v>177</v>
-      </c>
-      <c r="H7" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="I7" s="94" t="s">
-        <v>197</v>
-      </c>
-      <c r="J7" s="146" t="s">
-        <v>761</v>
-      </c>
-      <c r="K7" s="146" t="s">
-        <v>762</v>
-      </c>
-      <c r="L7" s="146" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="122">
-        <v>6</v>
-      </c>
-      <c r="B8" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="124" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="127" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="126" t="s">
+      <c r="E8" s="125" t="s">
         <v>196</v>
       </c>
       <c r="F8" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="117" t="s">
+      <c r="G8" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="I8" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="H8" s="104" t="s">
+      <c r="J8" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="I8" s="94" t="s">
+      <c r="K8" s="94" t="s">
         <v>197</v>
       </c>
-      <c r="J8" s="146" t="s">
-        <v>763</v>
-      </c>
-      <c r="K8" s="146" t="s">
-        <v>764</v>
-      </c>
-      <c r="L8" s="146" t="s">
+      <c r="L8" s="131" t="s">
+        <v>761</v>
+      </c>
+      <c r="M8" s="131" t="s">
+        <v>762</v>
+      </c>
+      <c r="N8" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="122">
-        <v>7</v>
-      </c>
-      <c r="B9" s="123" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="124" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="127" t="s">
-        <v>203</v>
-      </c>
-      <c r="E9" s="126" t="s">
+    <row r="9" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="121">
+        <v>6</v>
+      </c>
+      <c r="B9" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="123" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="126" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="125" t="s">
         <v>196</v>
       </c>
       <c r="F9" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="117" t="s">
+      <c r="G9" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="H9" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="H9" s="104" t="s">
+      <c r="J9" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="I9" s="94" t="s">
+      <c r="K9" s="94" t="s">
         <v>197</v>
       </c>
-      <c r="J9" s="146" t="s">
+      <c r="L9" s="131" t="s">
+        <v>763</v>
+      </c>
+      <c r="M9" s="131" t="s">
+        <v>764</v>
+      </c>
+      <c r="N9" s="131" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="121">
+        <v>7</v>
+      </c>
+      <c r="B10" s="122" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="123" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="H10" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="I10" s="116" t="s">
+        <v>177</v>
+      </c>
+      <c r="J10" s="103" t="s">
+        <v>178</v>
+      </c>
+      <c r="K10" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="131" t="s">
         <v>765</v>
       </c>
-      <c r="K9" s="146" t="s">
+      <c r="M10" s="131" t="s">
         <v>766</v>
       </c>
-      <c r="L9" s="146" t="s">
+      <c r="N10" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="122">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="121">
         <v>8</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B11" s="122" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C11" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="127" t="s">
+      <c r="D11" s="126" t="s">
         <v>206</v>
       </c>
-      <c r="E10" s="126" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" s="98" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="117" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="95" t="s">
-        <v>207</v>
-      </c>
-      <c r="I10" s="128">
-        <v>24985</v>
-      </c>
-      <c r="J10" s="146" t="s">
-        <v>767</v>
-      </c>
-      <c r="K10" s="146" t="s">
-        <v>768</v>
-      </c>
-      <c r="L10" s="146" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="122">
-        <v>9</v>
-      </c>
-      <c r="B11" s="123" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="124" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="127" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="126" t="s">
+      <c r="E11" s="125" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="I11" s="116" t="s">
+        <v>177</v>
+      </c>
+      <c r="J11" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" s="127">
+        <v>24985</v>
+      </c>
+      <c r="L11" s="131" t="s">
+        <v>767</v>
+      </c>
+      <c r="M11" s="131" t="s">
+        <v>768</v>
+      </c>
+      <c r="N11" s="131" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="121">
+        <v>9</v>
+      </c>
+      <c r="B12" s="122" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="123" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="126" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" s="128" t="s">
         <v>211</v>
       </c>
-      <c r="H11" s="104" t="s">
+      <c r="J12" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="I11" s="97" t="s">
+      <c r="K12" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="J11" s="146" t="s">
+      <c r="L12" s="131" t="s">
         <v>770</v>
       </c>
-      <c r="K11" s="146" t="s">
+      <c r="M12" s="131" t="s">
         <v>771</v>
       </c>
-      <c r="L11" s="146" t="s">
+      <c r="N12" s="131" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="122">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="121">
         <v>10</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B13" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C13" s="123" t="s">
         <v>214</v>
       </c>
-      <c r="D12" s="127" t="s">
+      <c r="D13" s="126" t="s">
         <v>215</v>
       </c>
-      <c r="E12" s="126" t="s">
-        <v>196</v>
-      </c>
-      <c r="F12" s="98" t="s">
-        <v>196</v>
-      </c>
-      <c r="G12" s="117" t="s">
-        <v>177</v>
-      </c>
-      <c r="H12" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="I12" s="97" t="s">
-        <v>197</v>
-      </c>
-      <c r="J12" s="146" t="s">
-        <v>773</v>
-      </c>
-      <c r="K12" s="146" t="s">
-        <v>774</v>
-      </c>
-      <c r="L12" s="146" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="122">
-        <v>11</v>
-      </c>
-      <c r="B13" s="123" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="124" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="127" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" s="126" t="s">
+      <c r="E13" s="125" t="s">
         <v>196</v>
       </c>
       <c r="F13" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="G13" s="117" t="s">
+      <c r="G13" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="H13" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="I13" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="H13" s="104" t="s">
+      <c r="J13" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="I13" s="97" t="s">
+      <c r="K13" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="J13" s="146" t="s">
-        <v>775</v>
-      </c>
-      <c r="K13" s="146" t="s">
-        <v>776</v>
-      </c>
-      <c r="L13" s="146" t="s">
+      <c r="L13" s="131" t="s">
+        <v>773</v>
+      </c>
+      <c r="M13" s="131" t="s">
+        <v>774</v>
+      </c>
+      <c r="N13" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="122">
-        <v>12</v>
-      </c>
-      <c r="B14" s="123" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="124" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="127" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" s="126" t="s">
+    <row r="14" spans="1:14" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="121">
+        <v>11</v>
+      </c>
+      <c r="B14" s="122" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="123" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="126" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="125" t="s">
         <v>196</v>
       </c>
       <c r="F14" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="117" t="s">
+      <c r="G14" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="H14" s="104" t="s">
+      <c r="J14" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="I14" s="97" t="s">
+      <c r="K14" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="J14" s="146" t="s">
+      <c r="L14" s="131" t="s">
+        <v>775</v>
+      </c>
+      <c r="M14" s="131" t="s">
+        <v>776</v>
+      </c>
+      <c r="N14" s="131" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="121">
+        <v>12</v>
+      </c>
+      <c r="B15" s="122" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="123" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="126" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="H15" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="I15" s="116" t="s">
+        <v>177</v>
+      </c>
+      <c r="J15" s="103" t="s">
+        <v>178</v>
+      </c>
+      <c r="K15" s="97" t="s">
+        <v>197</v>
+      </c>
+      <c r="L15" s="131" t="s">
         <v>777</v>
       </c>
-      <c r="K14" s="146" t="s">
+      <c r="M15" s="131" t="s">
         <v>778</v>
       </c>
-      <c r="L14" s="146" t="s">
+      <c r="N15" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="122">
+    <row r="16" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="121">
         <v>13</v>
       </c>
-      <c r="B15" s="123" t="s">
+      <c r="B16" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="124" t="s">
+      <c r="C16" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="D15" s="127" t="s">
+      <c r="D16" s="126" t="s">
         <v>224</v>
       </c>
-      <c r="E15" s="126" t="s">
-        <v>225</v>
-      </c>
-      <c r="F15" s="98" t="s">
-        <v>225</v>
-      </c>
-      <c r="G15" s="117" t="s">
-        <v>226</v>
-      </c>
-      <c r="H15" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="I15" s="97">
-        <v>13121</v>
-      </c>
-      <c r="J15" s="146" t="s">
-        <v>779</v>
-      </c>
-      <c r="K15" s="146" t="s">
-        <v>780</v>
-      </c>
-      <c r="L15" s="146" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="122">
-        <v>14</v>
-      </c>
-      <c r="B16" s="123" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="124" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" s="127" t="s">
-        <v>229</v>
-      </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="125" t="s">
         <v>225</v>
       </c>
       <c r="F16" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="G16" s="117" t="s">
-        <v>230</v>
-      </c>
-      <c r="H16" s="104" t="s">
+      <c r="G16" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="I16" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="J16" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="I16" s="97" t="s">
-        <v>231</v>
-      </c>
-      <c r="J16" s="146" t="s">
-        <v>781</v>
-      </c>
-      <c r="K16" s="146" t="s">
-        <v>782</v>
-      </c>
-      <c r="L16" s="146" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="122">
-        <v>15</v>
-      </c>
-      <c r="B17" s="123" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" s="124" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" s="127" t="s">
-        <v>234</v>
-      </c>
-      <c r="E17" s="126" t="s">
+      <c r="K16" s="97">
+        <v>13121</v>
+      </c>
+      <c r="L16" s="131" t="s">
+        <v>779</v>
+      </c>
+      <c r="M16" s="131" t="s">
+        <v>780</v>
+      </c>
+      <c r="N16" s="131" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="121">
+        <v>14</v>
+      </c>
+      <c r="B17" s="122" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="123" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="126" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="125" t="s">
         <v>225</v>
       </c>
       <c r="F17" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="G17" s="117" t="s">
+      <c r="G17" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="I17" s="116" t="s">
+        <v>230</v>
+      </c>
+      <c r="J17" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="L17" s="131" t="s">
+        <v>781</v>
+      </c>
+      <c r="M17" s="131" t="s">
+        <v>782</v>
+      </c>
+      <c r="N17" s="131" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="121">
+        <v>15</v>
+      </c>
+      <c r="B18" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="123" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="126" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="125" t="s">
+        <v>225</v>
+      </c>
+      <c r="F18" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="H18" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="I18" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="H17" s="104" t="s">
+      <c r="J18" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="I17" s="97">
+      <c r="K18" s="97">
         <v>30301</v>
       </c>
-      <c r="J17" s="146" t="s">
+      <c r="L18" s="131" t="s">
         <v>783</v>
       </c>
-      <c r="K17" s="146" t="s">
+      <c r="M18" s="131" t="s">
         <v>784</v>
       </c>
-      <c r="L17" s="146" t="s">
+      <c r="N18" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="122">
+    <row r="19" spans="1:14" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="121">
         <v>16</v>
       </c>
-      <c r="B18" s="123" t="s">
+      <c r="B19" s="122" t="s">
         <v>235</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C19" s="123" t="s">
         <v>236</v>
       </c>
-      <c r="D18" s="127" t="s">
+      <c r="D19" s="126" t="s">
         <v>237</v>
       </c>
-      <c r="E18" s="126" t="s">
+      <c r="E19" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="F18" s="98" t="s">
+      <c r="F19" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="G18" s="129" t="s">
+      <c r="G19" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" s="128" t="s">
         <v>238</v>
       </c>
-      <c r="H18" s="104" t="s">
+      <c r="J19" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="I18" s="94" t="s">
+      <c r="K19" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="J18" s="146" t="s">
+      <c r="L19" s="131" t="s">
         <v>785</v>
       </c>
-      <c r="K18" s="146" t="s">
+      <c r="M19" s="131" t="s">
         <v>786</v>
       </c>
-      <c r="L18" s="146" t="s">
+      <c r="N19" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="122">
+    <row r="20" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="121">
         <v>17</v>
       </c>
-      <c r="B19" s="123" t="s">
+      <c r="B20" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C20" s="123" t="s">
         <v>241</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D20" s="126" t="s">
         <v>242</v>
       </c>
-      <c r="E19" s="126" t="s">
-        <v>225</v>
-      </c>
-      <c r="F19" s="98" t="s">
-        <v>225</v>
-      </c>
-      <c r="G19" s="129" t="s">
-        <v>243</v>
-      </c>
-      <c r="H19" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="I19" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="J19" s="146" t="s">
-        <v>785</v>
-      </c>
-      <c r="K19" s="146" t="s">
-        <v>786</v>
-      </c>
-      <c r="L19" s="146" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="122">
-        <v>18</v>
-      </c>
-      <c r="B20" s="123" t="s">
-        <v>245</v>
-      </c>
-      <c r="C20" s="124" t="s">
-        <v>246</v>
-      </c>
-      <c r="D20" s="127" t="s">
-        <v>242</v>
-      </c>
-      <c r="E20" s="126" t="s">
+      <c r="E20" s="125" t="s">
         <v>225</v>
       </c>
       <c r="F20" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="G20" s="129" t="s">
+      <c r="G20" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="H20" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="I20" s="128" t="s">
         <v>243</v>
       </c>
-      <c r="H20" s="104" t="s">
+      <c r="J20" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="I20" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="J20" s="146" t="s">
+      <c r="K20" s="94" t="s">
+        <v>244</v>
+      </c>
+      <c r="L20" s="131" t="s">
         <v>785</v>
       </c>
-      <c r="K20" s="146" t="s">
+      <c r="M20" s="131" t="s">
         <v>786</v>
       </c>
-      <c r="L20" s="146" t="s">
+      <c r="N20" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="122">
-        <v>19</v>
-      </c>
-      <c r="B21" s="123" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="124" t="s">
-        <v>249</v>
-      </c>
-      <c r="D21" s="127" t="s">
+    <row r="21" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="121">
+        <v>18</v>
+      </c>
+      <c r="B21" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="123" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="126" t="s">
         <v>242</v>
       </c>
-      <c r="E21" s="126" t="s">
+      <c r="E21" s="125" t="s">
         <v>225</v>
       </c>
       <c r="F21" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="G21" s="129" t="s">
+      <c r="G21" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="H21" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="I21" s="128" t="s">
         <v>243</v>
       </c>
-      <c r="H21" s="104" t="s">
+      <c r="J21" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="I21" s="94" t="s">
-        <v>250</v>
-      </c>
-      <c r="J21" s="146" t="s">
+      <c r="K21" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="L21" s="131" t="s">
         <v>785</v>
       </c>
-      <c r="K21" s="146" t="s">
+      <c r="M21" s="131" t="s">
         <v>786</v>
       </c>
-      <c r="L21" s="146" t="s">
+      <c r="N21" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="122">
-        <v>20</v>
-      </c>
-      <c r="B22" s="123" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="124" t="s">
-        <v>252</v>
-      </c>
-      <c r="D22" s="127" t="s">
+    <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="121">
+        <v>19</v>
+      </c>
+      <c r="B22" s="122" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="123" t="s">
+        <v>249</v>
+      </c>
+      <c r="D22" s="126" t="s">
         <v>242</v>
       </c>
-      <c r="E22" s="126" t="s">
+      <c r="E22" s="125" t="s">
         <v>225</v>
       </c>
       <c r="F22" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="G22" s="129" t="s">
+      <c r="G22" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="H22" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="I22" s="128" t="s">
         <v>243</v>
       </c>
-      <c r="H22" s="104" t="s">
+      <c r="J22" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="I22" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="J22" s="146" t="s">
+      <c r="K22" s="94" t="s">
+        <v>250</v>
+      </c>
+      <c r="L22" s="131" t="s">
         <v>785</v>
       </c>
-      <c r="K22" s="146" t="s">
+      <c r="M22" s="131" t="s">
         <v>786</v>
       </c>
-      <c r="L22" s="146" t="s">
+      <c r="N22" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="122">
-        <v>21</v>
-      </c>
-      <c r="B23" s="123" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="124" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" s="127" t="s">
+    <row r="23" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="121">
+        <v>20</v>
+      </c>
+      <c r="B23" s="122" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="123" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="126" t="s">
         <v>242</v>
       </c>
-      <c r="E23" s="126" t="s">
+      <c r="E23" s="125" t="s">
         <v>225</v>
       </c>
       <c r="F23" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="G23" s="129" t="s">
+      <c r="G23" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="I23" s="128" t="s">
         <v>243</v>
       </c>
-      <c r="H23" s="104" t="s">
+      <c r="J23" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="I23" s="94" t="s">
+      <c r="K23" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="L23" s="131" t="s">
+        <v>785</v>
+      </c>
+      <c r="M23" s="131" t="s">
+        <v>786</v>
+      </c>
+      <c r="N23" s="131" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="121">
+        <v>21</v>
+      </c>
+      <c r="B24" s="122" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="123" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="126" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" s="125" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="H24" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="I24" s="128" t="s">
+        <v>243</v>
+      </c>
+      <c r="J24" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="J23" s="146" t="s">
+      <c r="L24" s="131" t="s">
         <v>785</v>
       </c>
-      <c r="K23" s="146" t="s">
+      <c r="M24" s="131" t="s">
         <v>786</v>
       </c>
-      <c r="L23" s="146" t="s">
+      <c r="N24" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="122">
+    <row r="25" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="121">
         <v>22</v>
       </c>
-      <c r="B24" s="123" t="s">
+      <c r="B25" s="122" t="s">
         <v>257</v>
       </c>
-      <c r="C24" s="124" t="s">
+      <c r="C25" s="123" t="s">
         <v>258</v>
       </c>
-      <c r="D24" s="127" t="s">
+      <c r="D25" s="126" t="s">
         <v>259</v>
       </c>
-      <c r="E24" s="126" t="s">
+      <c r="E25" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="F24" s="98" t="s">
+      <c r="F25" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="G24" s="117" t="s">
+      <c r="G25" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="I25" s="116" t="s">
         <v>260</v>
       </c>
-      <c r="H24" s="104" t="s">
+      <c r="J25" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="I24" s="94" t="s">
+      <c r="K25" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="J24" s="146" t="s">
+      <c r="L25" s="131" t="s">
         <v>787</v>
       </c>
-      <c r="K24" s="146" t="s">
+      <c r="M25" s="131" t="s">
         <v>788</v>
       </c>
-      <c r="L24" s="146" t="s">
+      <c r="N25" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="122">
+    <row r="26" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="121">
         <v>23</v>
       </c>
-      <c r="B25" s="123" t="s">
+      <c r="B26" s="122" t="s">
         <v>262</v>
       </c>
-      <c r="C25" s="124" t="s">
+      <c r="C26" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="D25" s="127" t="s">
+      <c r="D26" s="126" t="s">
         <v>264</v>
       </c>
-      <c r="E25" s="126" t="s">
+      <c r="E26" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="98" t="s">
+      <c r="F26" s="98" t="s">
         <v>265</v>
       </c>
-      <c r="G25" s="117" t="s">
+      <c r="G26" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="I26" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="H25" s="95" t="s">
+      <c r="J26" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="I25" s="128">
+      <c r="K26" s="127">
         <v>44180</v>
       </c>
-      <c r="J25" s="146" t="s">
+      <c r="L26" s="131" t="s">
         <v>789</v>
       </c>
-      <c r="K25" s="146" t="s">
+      <c r="M26" s="131" t="s">
         <v>790</v>
       </c>
-      <c r="L25" s="146" t="s">
+      <c r="N26" s="131" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="126" x14ac:dyDescent="0.25">
-      <c r="A26" s="122">
+    <row r="27" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+      <c r="A27" s="121">
         <v>24</v>
       </c>
-      <c r="B26" s="123" t="s">
+      <c r="B27" s="122" t="s">
         <v>266</v>
       </c>
-      <c r="C26" s="124" t="s">
+      <c r="C27" s="123" t="s">
         <v>267</v>
       </c>
-      <c r="D26" s="127" t="s">
+      <c r="D27" s="126" t="s">
         <v>268</v>
       </c>
-      <c r="E26" s="126" t="s">
+      <c r="E27" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="98" t="s">
+      <c r="F27" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="129" t="s">
+      <c r="G27" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="H27" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="I27" s="128" t="s">
         <v>269</v>
       </c>
-      <c r="H26" s="104" t="s">
+      <c r="J27" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="I26" s="96" t="s">
+      <c r="K27" s="96" t="s">
         <v>270</v>
       </c>
-      <c r="J26" s="146" t="s">
+      <c r="L27" s="131" t="s">
         <v>791</v>
       </c>
-      <c r="K26" s="146" t="s">
+      <c r="M27" s="131" t="s">
         <v>792</v>
       </c>
-      <c r="L26" s="146" t="s">
+      <c r="N27" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="90" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="122">
+    <row r="28" spans="1:14" s="90" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="121">
         <v>25</v>
       </c>
-      <c r="B27" s="123" t="s">
+      <c r="B28" s="122" t="s">
         <v>271</v>
       </c>
-      <c r="C27" s="124" t="s">
+      <c r="C28" s="123" t="s">
         <v>272</v>
       </c>
-      <c r="D27" s="127" t="s">
+      <c r="D28" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="E27" s="126" t="s">
-        <v>274</v>
-      </c>
-      <c r="F27" s="98" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="129" t="s">
-        <v>275</v>
-      </c>
-      <c r="H27" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="I27" s="96"/>
-      <c r="J27" s="146" t="s">
-        <v>793</v>
-      </c>
-      <c r="K27" s="146" t="s">
-        <v>792</v>
-      </c>
-      <c r="L27" s="146" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="122">
-        <v>26</v>
-      </c>
-      <c r="B28" s="123" t="s">
-        <v>276</v>
-      </c>
-      <c r="C28" s="124" t="s">
-        <v>277</v>
-      </c>
-      <c r="D28" s="127" t="s">
-        <v>278</v>
-      </c>
-      <c r="E28" s="126" t="s">
+      <c r="E28" s="125" t="s">
         <v>274</v>
       </c>
       <c r="F28" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="G28" s="129" t="s">
-        <v>279</v>
-      </c>
-      <c r="H28" s="104" t="s">
+      <c r="G28" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="H28" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28" s="128" t="s">
+        <v>275</v>
+      </c>
+      <c r="J28" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="I28" s="94" t="s">
-        <v>280</v>
-      </c>
-      <c r="J28" s="146" t="s">
-        <v>794</v>
-      </c>
-      <c r="K28" s="146" t="s">
-        <v>795</v>
-      </c>
-      <c r="L28" s="146" t="s">
+      <c r="K28" s="96"/>
+      <c r="L28" s="131" t="s">
+        <v>793</v>
+      </c>
+      <c r="M28" s="131" t="s">
+        <v>792</v>
+      </c>
+      <c r="N28" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="122">
-        <v>27</v>
-      </c>
-      <c r="B29" s="123" t="s">
-        <v>281</v>
-      </c>
-      <c r="C29" s="124" t="s">
-        <v>282</v>
-      </c>
-      <c r="D29" s="127" t="s">
-        <v>283</v>
-      </c>
-      <c r="E29" s="126" t="s">
+    <row r="29" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="121">
+        <v>26</v>
+      </c>
+      <c r="B29" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="123" t="s">
+        <v>277</v>
+      </c>
+      <c r="D29" s="126" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" s="125" t="s">
         <v>274</v>
       </c>
       <c r="F29" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="G29" s="117" t="s">
-        <v>177</v>
-      </c>
-      <c r="H29" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="I29" s="97" t="s">
-        <v>284</v>
-      </c>
-      <c r="J29" s="146" t="s">
-        <v>796</v>
-      </c>
-      <c r="K29" s="146" t="s">
-        <v>797</v>
-      </c>
-      <c r="L29" s="146" t="s">
+      <c r="G29" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="H29" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29" s="128" t="s">
+        <v>279</v>
+      </c>
+      <c r="J29" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="K29" s="94" t="s">
+        <v>280</v>
+      </c>
+      <c r="L29" s="131" t="s">
+        <v>794</v>
+      </c>
+      <c r="M29" s="131" t="s">
+        <v>795</v>
+      </c>
+      <c r="N29" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="90" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="122">
-        <v>28</v>
-      </c>
-      <c r="B30" s="123" t="s">
-        <v>285</v>
-      </c>
-      <c r="C30" s="124" t="s">
-        <v>286</v>
-      </c>
-      <c r="D30" s="130" t="s">
-        <v>287</v>
-      </c>
-      <c r="E30" s="126" t="s">
+    <row r="30" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="121">
+        <v>27</v>
+      </c>
+      <c r="B30" s="122" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D30" s="126" t="s">
+        <v>283</v>
+      </c>
+      <c r="E30" s="125" t="s">
         <v>274</v>
       </c>
       <c r="F30" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="G30" s="117" t="s">
+      <c r="G30" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="H30" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="H30" s="95" t="s">
-        <v>207</v>
-      </c>
-      <c r="I30" s="128">
-        <v>44365</v>
-      </c>
-      <c r="J30" s="146" t="s">
-        <v>798</v>
-      </c>
-      <c r="K30" s="146" t="s">
-        <v>799</v>
-      </c>
-      <c r="L30" s="146" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="90" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="122">
-        <v>29</v>
-      </c>
-      <c r="B31" s="123" t="s">
-        <v>288</v>
-      </c>
-      <c r="C31" s="124" t="s">
-        <v>289</v>
-      </c>
-      <c r="D31" s="105" t="s">
-        <v>290</v>
-      </c>
-      <c r="E31" s="126" t="s">
+      <c r="J30" s="103" t="s">
+        <v>178</v>
+      </c>
+      <c r="K30" s="97" t="s">
+        <v>284</v>
+      </c>
+      <c r="L30" s="131" t="s">
+        <v>796</v>
+      </c>
+      <c r="M30" s="131" t="s">
+        <v>797</v>
+      </c>
+      <c r="N30" s="131" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="90" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="121">
+        <v>28</v>
+      </c>
+      <c r="B31" s="122" t="s">
+        <v>285</v>
+      </c>
+      <c r="C31" s="123" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="129" t="s">
+        <v>287</v>
+      </c>
+      <c r="E31" s="125" t="s">
         <v>274</v>
       </c>
       <c r="F31" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="G31" s="129" t="s">
-        <v>291</v>
-      </c>
-      <c r="H31" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="I31" s="97" t="s">
-        <v>292</v>
-      </c>
-      <c r="J31" s="146" t="s">
-        <v>800</v>
-      </c>
-      <c r="K31" s="146" t="s">
-        <v>801</v>
-      </c>
-      <c r="L31" s="146" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="90" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A32" s="122">
-        <v>30</v>
-      </c>
-      <c r="B32" s="123" t="s">
-        <v>293</v>
-      </c>
-      <c r="C32" s="124" t="s">
-        <v>294</v>
-      </c>
-      <c r="D32" s="105" t="s">
-        <v>295</v>
-      </c>
-      <c r="E32" s="126" t="s">
+      <c r="G31" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="H31" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" s="116" t="s">
+        <v>177</v>
+      </c>
+      <c r="J31" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" s="127">
+        <v>44365</v>
+      </c>
+      <c r="L31" s="131" t="s">
+        <v>798</v>
+      </c>
+      <c r="M31" s="131" t="s">
+        <v>799</v>
+      </c>
+      <c r="N31" s="131" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="90" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="121">
+        <v>29</v>
+      </c>
+      <c r="B32" s="122" t="s">
+        <v>288</v>
+      </c>
+      <c r="C32" s="123" t="s">
+        <v>289</v>
+      </c>
+      <c r="D32" s="104" t="s">
+        <v>290</v>
+      </c>
+      <c r="E32" s="125" t="s">
         <v>274</v>
       </c>
       <c r="F32" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="G32" s="101" t="s">
-        <v>296</v>
-      </c>
-      <c r="H32" s="104" t="s">
+      <c r="G32" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="H32" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="I32" s="128" t="s">
+        <v>291</v>
+      </c>
+      <c r="J32" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="I32" s="97" t="s">
-        <v>297</v>
-      </c>
-      <c r="J32" s="146" t="s">
-        <v>802</v>
-      </c>
-      <c r="K32" s="146" t="s">
-        <v>803</v>
-      </c>
-      <c r="L32" s="146" t="s">
+      <c r="K32" s="97" t="s">
+        <v>292</v>
+      </c>
+      <c r="L32" s="131" t="s">
+        <v>800</v>
+      </c>
+      <c r="M32" s="131" t="s">
+        <v>801</v>
+      </c>
+      <c r="N32" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="90" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="122">
-        <v>31</v>
-      </c>
-      <c r="B33" s="123" t="s">
-        <v>298</v>
-      </c>
-      <c r="C33" s="124" t="s">
-        <v>299</v>
-      </c>
-      <c r="D33" s="105" t="s">
-        <v>300</v>
-      </c>
-      <c r="E33" s="126" t="s">
-        <v>176</v>
+    <row r="33" spans="1:14" s="90" customFormat="1" ht="189" x14ac:dyDescent="0.25">
+      <c r="A33" s="121">
+        <v>30</v>
+      </c>
+      <c r="B33" s="122" t="s">
+        <v>293</v>
+      </c>
+      <c r="C33" s="123" t="s">
+        <v>294</v>
+      </c>
+      <c r="D33" s="104" t="s">
+        <v>295</v>
+      </c>
+      <c r="E33" s="125" t="s">
+        <v>274</v>
       </c>
       <c r="F33" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="G33" s="101" t="s">
-        <v>301</v>
-      </c>
-      <c r="H33" s="104" t="s">
+      <c r="G33" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="H33" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="I33" s="101" t="s">
+        <v>296</v>
+      </c>
+      <c r="J33" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="I33" s="94">
-        <v>2</v>
-      </c>
-      <c r="J33" s="146" t="s">
-        <v>747</v>
-      </c>
-      <c r="K33" s="146" t="s">
-        <v>748</v>
-      </c>
-      <c r="L33" s="146" t="s">
+      <c r="K33" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="L33" s="131" t="s">
+        <v>802</v>
+      </c>
+      <c r="M33" s="131" t="s">
+        <v>803</v>
+      </c>
+      <c r="N33" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="90" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="122">
-        <v>32</v>
-      </c>
-      <c r="B34" s="123" t="s">
-        <v>302</v>
-      </c>
-      <c r="C34" s="124" t="s">
-        <v>303</v>
-      </c>
-      <c r="D34" s="105" t="s">
-        <v>304</v>
-      </c>
-      <c r="E34" s="126" t="s">
+    <row r="34" spans="1:14" s="90" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="121">
+        <v>31</v>
+      </c>
+      <c r="B34" s="122" t="s">
+        <v>298</v>
+      </c>
+      <c r="C34" s="123" t="s">
+        <v>299</v>
+      </c>
+      <c r="D34" s="104" t="s">
+        <v>300</v>
+      </c>
+      <c r="E34" s="125" t="s">
         <v>176</v>
       </c>
       <c r="F34" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="G34" s="129" t="s">
+      <c r="G34" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="H34" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="I34" s="101" t="s">
+        <v>301</v>
+      </c>
+      <c r="J34" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="K34" s="94">
+        <v>2</v>
+      </c>
+      <c r="L34" s="131" t="s">
+        <v>747</v>
+      </c>
+      <c r="M34" s="131" t="s">
+        <v>748</v>
+      </c>
+      <c r="N34" s="131" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="90" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="121">
+        <v>32</v>
+      </c>
+      <c r="B35" s="122" t="s">
+        <v>302</v>
+      </c>
+      <c r="C35" s="123" t="s">
+        <v>303</v>
+      </c>
+      <c r="D35" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="E35" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="I35" s="128" t="s">
         <v>305</v>
       </c>
-      <c r="H34" s="104" t="s">
+      <c r="J35" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="I34" s="97" t="s">
+      <c r="K35" s="97" t="s">
         <v>306</v>
       </c>
-      <c r="J34" s="146" t="s">
+      <c r="L35" s="131" t="s">
         <v>750</v>
       </c>
-      <c r="K34" s="146" t="s">
+      <c r="M35" s="131" t="s">
         <v>748</v>
       </c>
-      <c r="L34" s="146" t="s">
+      <c r="N35" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="90" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="122">
+    <row r="36" spans="1:14" s="90" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="121">
         <v>33</v>
       </c>
-      <c r="B35" s="123" t="s">
+      <c r="B36" s="122" t="s">
         <v>307</v>
       </c>
-      <c r="C35" s="124" t="s">
+      <c r="C36" s="123" t="s">
         <v>308</v>
       </c>
-      <c r="D35" s="105" t="s">
+      <c r="D36" s="104" t="s">
         <v>309</v>
       </c>
-      <c r="E35" s="126" t="s">
+      <c r="E36" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="F35" s="98" t="s">
+      <c r="F36" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="G35" s="117" t="s">
+      <c r="G36" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="I36" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="H35" s="104" t="s">
+      <c r="J36" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="I35" s="97" t="s">
+      <c r="K36" s="97" t="s">
         <v>310</v>
       </c>
-      <c r="J35" s="146" t="s">
+      <c r="L36" s="131" t="s">
         <v>804</v>
       </c>
-      <c r="K35" s="146" t="s">
+      <c r="M36" s="131" t="s">
         <v>805</v>
       </c>
-      <c r="L35" s="146" t="s">
+      <c r="N36" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="122">
+    <row r="37" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="121">
         <v>34</v>
       </c>
-      <c r="B36" s="123" t="s">
+      <c r="B37" s="122" t="s">
         <v>311</v>
       </c>
-      <c r="C36" s="124" t="s">
+      <c r="C37" s="123" t="s">
         <v>312</v>
       </c>
-      <c r="D36" s="127" t="s">
+      <c r="D37" s="126" t="s">
         <v>313</v>
       </c>
-      <c r="E36" s="126" t="s">
+      <c r="E37" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="F36" s="126" t="s">
+      <c r="F37" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="G36" s="117" t="s">
+      <c r="G37" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="I37" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="H36" s="104" t="s">
+      <c r="J37" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="I36" s="94" t="s">
+      <c r="K37" s="94" t="s">
         <v>314</v>
       </c>
-      <c r="J36" s="146" t="s">
+      <c r="L37" s="131" t="s">
         <v>806</v>
       </c>
-      <c r="K36" s="146" t="s">
+      <c r="M37" s="131" t="s">
         <v>807</v>
       </c>
-      <c r="L36" s="146" t="s">
+      <c r="N37" s="131" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="90" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="122">
+    <row r="38" spans="1:14" s="90" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="121">
         <v>35</v>
       </c>
-      <c r="B37" s="123" t="s">
+      <c r="B38" s="122" t="s">
         <v>315</v>
       </c>
-      <c r="C37" s="124" t="s">
+      <c r="C38" s="123" t="s">
         <v>316</v>
       </c>
-      <c r="D37" s="127" t="s">
+      <c r="D38" s="126" t="s">
         <v>317</v>
       </c>
-      <c r="E37" s="126" t="s">
+      <c r="E38" s="125" t="s">
         <v>274</v>
       </c>
-      <c r="F37" s="126" t="s">
+      <c r="F38" s="125" t="s">
         <v>274</v>
       </c>
-      <c r="G37" s="117" t="s">
+      <c r="G38" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="H38" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="I38" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="H37" s="104" t="s">
+      <c r="J38" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="I37" s="94">
+      <c r="K38" s="94">
         <v>123456</v>
       </c>
-      <c r="J37" s="146" t="s">
+      <c r="L38" s="131" t="s">
         <v>808</v>
       </c>
-      <c r="K37" s="146" t="s">
+      <c r="M38" s="131" t="s">
         <v>809</v>
       </c>
-      <c r="L37" s="146" t="s">
+      <c r="N38" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="122">
+    <row r="39" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="121">
         <v>36</v>
       </c>
-      <c r="B38" s="123" t="s">
+      <c r="B39" s="122" t="s">
         <v>318</v>
       </c>
-      <c r="C38" s="124" t="s">
+      <c r="C39" s="123" t="s">
         <v>319</v>
       </c>
-      <c r="D38" s="105" t="s">
+      <c r="D39" s="104" t="s">
         <v>320</v>
       </c>
-      <c r="E38" s="126" t="s">
+      <c r="E39" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="F38" s="98" t="s">
+      <c r="F39" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="G38" s="117" t="s">
+      <c r="G39" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="I39" s="116" t="s">
         <v>321</v>
       </c>
-      <c r="H38" s="104" t="s">
+      <c r="J39" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="I38" s="94">
+      <c r="K39" s="94">
         <v>17</v>
       </c>
-      <c r="J38" s="146" t="s">
+      <c r="L39" s="131" t="s">
         <v>810</v>
       </c>
-      <c r="K38" s="146" t="s">
+      <c r="M39" s="131" t="s">
         <v>811</v>
       </c>
-      <c r="L38" s="146" t="s">
+      <c r="N39" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="122">
+    <row r="40" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="121">
         <v>37</v>
       </c>
-      <c r="B39" s="123" t="s">
+      <c r="B40" s="122" t="s">
         <v>322</v>
       </c>
-      <c r="C39" s="124" t="s">
+      <c r="C40" s="123" t="s">
         <v>323</v>
       </c>
-      <c r="D39" s="127" t="s">
+      <c r="D40" s="126" t="s">
         <v>324</v>
       </c>
-      <c r="E39" s="126" t="s">
-        <v>274</v>
-      </c>
-      <c r="F39" s="98" t="s">
-        <v>325</v>
-      </c>
-      <c r="G39" s="117" t="s">
-        <v>177</v>
-      </c>
-      <c r="H39" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="I39" s="94" t="s">
-        <v>326</v>
-      </c>
-      <c r="J39" s="146" t="s">
-        <v>812</v>
-      </c>
-      <c r="K39" s="146" t="s">
-        <v>813</v>
-      </c>
-      <c r="L39" s="146" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="90" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="122">
-        <v>38</v>
-      </c>
-      <c r="B40" s="123" t="s">
-        <v>327</v>
-      </c>
-      <c r="C40" s="124" t="s">
-        <v>328</v>
-      </c>
-      <c r="D40" s="127" t="s">
-        <v>329</v>
-      </c>
-      <c r="E40" s="126" t="s">
+      <c r="E40" s="125" t="s">
         <v>274</v>
       </c>
       <c r="F40" s="98" t="s">
         <v>325</v>
       </c>
-      <c r="G40" s="117" t="s">
+      <c r="G40" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="H40" s="98" t="s">
+        <v>325</v>
+      </c>
+      <c r="I40" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="H40" s="104" t="s">
+      <c r="J40" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="I40" s="94" t="s">
-        <v>330</v>
-      </c>
-      <c r="J40" s="146" t="s">
-        <v>814</v>
-      </c>
-      <c r="K40" s="146" t="s">
-        <v>815</v>
-      </c>
-      <c r="L40" s="146" t="s">
+      <c r="K40" s="94" t="s">
+        <v>326</v>
+      </c>
+      <c r="L40" s="131" t="s">
+        <v>812</v>
+      </c>
+      <c r="M40" s="131" t="s">
+        <v>813</v>
+      </c>
+      <c r="N40" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="122">
-        <v>39</v>
-      </c>
-      <c r="B41" s="123" t="s">
-        <v>331</v>
-      </c>
-      <c r="C41" s="124" t="s">
-        <v>332</v>
-      </c>
-      <c r="D41" s="127" t="s">
-        <v>333</v>
-      </c>
-      <c r="E41" s="126" t="s">
+    <row r="41" spans="1:14" s="90" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="121">
+        <v>38</v>
+      </c>
+      <c r="B41" s="122" t="s">
+        <v>327</v>
+      </c>
+      <c r="C41" s="123" t="s">
+        <v>328</v>
+      </c>
+      <c r="D41" s="126" t="s">
+        <v>329</v>
+      </c>
+      <c r="E41" s="125" t="s">
         <v>274</v>
       </c>
       <c r="F41" s="98" t="s">
         <v>325</v>
       </c>
-      <c r="G41" s="117" t="s">
+      <c r="G41" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="H41" s="98" t="s">
+        <v>325</v>
+      </c>
+      <c r="I41" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="H41" s="104" t="s">
+      <c r="J41" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="I41" s="94" t="s">
-        <v>334</v>
-      </c>
-      <c r="J41" s="146" t="s">
-        <v>816</v>
-      </c>
-      <c r="K41" s="146" t="s">
-        <v>817</v>
-      </c>
-      <c r="L41" s="146" t="s">
+      <c r="K41" s="94" t="s">
+        <v>330</v>
+      </c>
+      <c r="L41" s="131" t="s">
+        <v>814</v>
+      </c>
+      <c r="M41" s="131" t="s">
+        <v>815</v>
+      </c>
+      <c r="N41" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="122">
-        <v>40</v>
-      </c>
-      <c r="B42" s="123" t="s">
-        <v>335</v>
-      </c>
-      <c r="C42" s="124" t="s">
-        <v>336</v>
-      </c>
-      <c r="D42" s="127" t="s">
-        <v>337</v>
-      </c>
-      <c r="E42" s="126" t="s">
+    <row r="42" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="121">
+        <v>39</v>
+      </c>
+      <c r="B42" s="122" t="s">
+        <v>331</v>
+      </c>
+      <c r="C42" s="123" t="s">
+        <v>332</v>
+      </c>
+      <c r="D42" s="126" t="s">
+        <v>333</v>
+      </c>
+      <c r="E42" s="125" t="s">
         <v>274</v>
       </c>
       <c r="F42" s="98" t="s">
         <v>325</v>
       </c>
-      <c r="G42" s="117" t="s">
-        <v>338</v>
-      </c>
-      <c r="H42" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="I42" s="97">
-        <v>13121</v>
-      </c>
-      <c r="J42" s="146" t="s">
-        <v>818</v>
-      </c>
-      <c r="K42" s="146" t="s">
-        <v>819</v>
-      </c>
-      <c r="L42" s="146" t="s">
+      <c r="G42" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="H42" s="98" t="s">
+        <v>325</v>
+      </c>
+      <c r="I42" s="116" t="s">
+        <v>177</v>
+      </c>
+      <c r="J42" s="103" t="s">
+        <v>178</v>
+      </c>
+      <c r="K42" s="94" t="s">
+        <v>334</v>
+      </c>
+      <c r="L42" s="131" t="s">
+        <v>816</v>
+      </c>
+      <c r="M42" s="131" t="s">
+        <v>817</v>
+      </c>
+      <c r="N42" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="122">
-        <v>41</v>
-      </c>
-      <c r="B43" s="123" t="s">
-        <v>339</v>
-      </c>
-      <c r="C43" s="124" t="s">
-        <v>340</v>
-      </c>
-      <c r="D43" s="127" t="s">
-        <v>341</v>
-      </c>
-      <c r="E43" s="126" t="s">
+    <row r="43" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="121">
+        <v>40</v>
+      </c>
+      <c r="B43" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="C43" s="123" t="s">
+        <v>336</v>
+      </c>
+      <c r="D43" s="126" t="s">
+        <v>337</v>
+      </c>
+      <c r="E43" s="125" t="s">
         <v>274</v>
       </c>
       <c r="F43" s="98" t="s">
         <v>325</v>
       </c>
-      <c r="G43" s="117" t="s">
-        <v>342</v>
-      </c>
-      <c r="H43" s="104" t="s">
+      <c r="G43" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="H43" s="98" t="s">
+        <v>325</v>
+      </c>
+      <c r="I43" s="116" t="s">
+        <v>338</v>
+      </c>
+      <c r="J43" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="I43" s="97" t="s">
-        <v>231</v>
-      </c>
-      <c r="J43" s="146" t="s">
-        <v>820</v>
-      </c>
-      <c r="K43" s="146" t="s">
-        <v>821</v>
-      </c>
-      <c r="L43" s="146" t="s">
+      <c r="K43" s="97">
+        <v>13121</v>
+      </c>
+      <c r="L43" s="131" t="s">
+        <v>818</v>
+      </c>
+      <c r="M43" s="131" t="s">
+        <v>819</v>
+      </c>
+      <c r="N43" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="122">
-        <v>42</v>
-      </c>
-      <c r="B44" s="123" t="s">
-        <v>343</v>
-      </c>
-      <c r="C44" s="124" t="s">
-        <v>344</v>
-      </c>
-      <c r="D44" s="127" t="s">
-        <v>345</v>
-      </c>
-      <c r="E44" s="126" t="s">
+    <row r="44" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="121">
+        <v>41</v>
+      </c>
+      <c r="B44" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="C44" s="123" t="s">
+        <v>340</v>
+      </c>
+      <c r="D44" s="126" t="s">
+        <v>341</v>
+      </c>
+      <c r="E44" s="125" t="s">
         <v>274</v>
       </c>
       <c r="F44" s="98" t="s">
         <v>325</v>
       </c>
-      <c r="G44" s="117" t="s">
+      <c r="G44" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="H44" s="98" t="s">
+        <v>325</v>
+      </c>
+      <c r="I44" s="116" t="s">
+        <v>342</v>
+      </c>
+      <c r="J44" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="K44" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="L44" s="131" t="s">
+        <v>820</v>
+      </c>
+      <c r="M44" s="131" t="s">
+        <v>821</v>
+      </c>
+      <c r="N44" s="131" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="121">
+        <v>42</v>
+      </c>
+      <c r="B45" s="122" t="s">
+        <v>343</v>
+      </c>
+      <c r="C45" s="123" t="s">
+        <v>344</v>
+      </c>
+      <c r="D45" s="126" t="s">
+        <v>345</v>
+      </c>
+      <c r="E45" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="F45" s="98" t="s">
+        <v>325</v>
+      </c>
+      <c r="G45" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="H45" s="98" t="s">
+        <v>325</v>
+      </c>
+      <c r="I45" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="H44" s="104" t="s">
+      <c r="J45" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="I44" s="94">
+      <c r="K45" s="94">
         <v>30301</v>
       </c>
-      <c r="J44" s="146" t="s">
+      <c r="L45" s="131" t="s">
         <v>822</v>
       </c>
-      <c r="K44" s="146" t="s">
+      <c r="M45" s="131" t="s">
         <v>823</v>
       </c>
-      <c r="L44" s="146" t="s">
+      <c r="N45" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="122">
+    <row r="46" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="121">
         <v>43</v>
       </c>
-      <c r="B45" s="123" t="s">
+      <c r="B46" s="122" t="s">
         <v>346</v>
       </c>
-      <c r="C45" s="124" t="s">
+      <c r="C46" s="123" t="s">
         <v>347</v>
       </c>
-      <c r="D45" s="127" t="s">
+      <c r="D46" s="126" t="s">
         <v>348</v>
       </c>
-      <c r="E45" s="126" t="s">
+      <c r="E46" s="125" t="s">
         <v>349</v>
       </c>
-      <c r="F45" s="98" t="s">
+      <c r="F46" s="98" t="s">
         <v>350</v>
       </c>
-      <c r="G45" s="129" t="s">
+      <c r="G46" s="125" t="s">
+        <v>349</v>
+      </c>
+      <c r="H46" s="98" t="s">
+        <v>350</v>
+      </c>
+      <c r="I46" s="128" t="s">
         <v>351</v>
       </c>
-      <c r="H45" s="98" t="s">
+      <c r="J46" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="I45" s="94" t="s">
+      <c r="K46" s="94" t="s">
         <v>352</v>
       </c>
-      <c r="J45" s="146" t="s">
+      <c r="L46" s="131" t="s">
         <v>824</v>
       </c>
-      <c r="K45" s="146" t="s">
+      <c r="M46" s="131" t="s">
         <v>825</v>
       </c>
-      <c r="L45" s="146" t="s">
+      <c r="N46" s="131" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="122">
+    <row r="47" spans="1:14" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="121">
         <v>44</v>
       </c>
-      <c r="B46" s="123" t="s">
+      <c r="B47" s="122" t="s">
         <v>353</v>
       </c>
-      <c r="C46" s="124" t="s">
+      <c r="C47" s="123" t="s">
         <v>354</v>
       </c>
-      <c r="D46" s="127" t="s">
+      <c r="D47" s="126" t="s">
         <v>355</v>
       </c>
-      <c r="E46" s="126" t="s">
+      <c r="E47" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="F46" s="98" t="s">
+      <c r="F47" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="G46" s="129" t="s">
+      <c r="G47" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="H47" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="I47" s="128" t="s">
         <v>305</v>
       </c>
-      <c r="H46" s="98" t="s">
+      <c r="J47" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="I46" s="98" t="s">
+      <c r="K47" s="98" t="s">
         <v>306</v>
       </c>
-      <c r="J46" s="146" t="s">
+      <c r="L47" s="131" t="s">
         <v>751</v>
       </c>
-      <c r="K46" s="146" t="s">
+      <c r="M47" s="131" t="s">
         <v>748</v>
       </c>
-      <c r="L46" s="146" t="s">
+      <c r="N47" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="122">
+    <row r="48" spans="1:14" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="121">
         <v>45</v>
       </c>
-      <c r="B47" s="123" t="s">
+      <c r="B48" s="122" t="s">
         <v>356</v>
       </c>
-      <c r="C47" s="124" t="s">
+      <c r="C48" s="123" t="s">
         <v>357</v>
       </c>
-      <c r="D47" s="127" t="s">
+      <c r="D48" s="126" t="s">
         <v>358</v>
       </c>
-      <c r="E47" s="131" t="s">
+      <c r="E48" s="146" t="s">
         <v>176</v>
       </c>
-      <c r="F47" s="132" t="s">
+      <c r="F48" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="G47" s="129" t="s">
+      <c r="G48" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="I48" s="128" t="s">
         <v>305</v>
       </c>
-      <c r="H47" s="98" t="s">
+      <c r="J48" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="I47" s="98" t="s">
+      <c r="K48" s="98" t="s">
         <v>359</v>
       </c>
-      <c r="J47" s="146" t="s">
+      <c r="L48" s="131" t="s">
         <v>752</v>
       </c>
-      <c r="K47" s="146" t="s">
+      <c r="M48" s="131" t="s">
         <v>748</v>
       </c>
-      <c r="L47" s="146" t="s">
+      <c r="N48" s="131" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="93"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="J48" s="90"/>
+    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="93"/>
+      <c r="E49" s="142"/>
+      <c r="F49" s="142"/>
+      <c r="G49" s="142"/>
+      <c r="H49" s="142"/>
+      <c r="L49" s="90"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I47" xr:uid="{6B127860-CA54-404E-9FCE-03790E862F86}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I44">
-    <sortCondition ref="B6:B44"/>
+  <autoFilter ref="A3:K48" xr:uid="{6B127860-CA54-404E-9FCE-03790E862F86}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:K45">
+    <sortCondition ref="B7:B45"/>
   </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:I1"/>
+  <mergeCells count="6">
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9597,14 +9941,14 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="117" t="s">
         <v>364</v>
       </c>
       <c r="B5" s="93" t="s">
         <v>365</v>
       </c>
       <c r="C5" s="90"/>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="117" t="s">
         <v>366</v>
       </c>
       <c r="E5" s="93" t="s">
@@ -9612,14 +9956,14 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="117" t="s">
         <v>368</v>
       </c>
       <c r="B6" s="93" t="s">
         <v>369</v>
       </c>
       <c r="C6" s="90"/>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="117" t="s">
         <v>370</v>
       </c>
       <c r="E6" s="93" t="s">
@@ -9627,14 +9971,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="117" t="s">
         <v>372</v>
       </c>
       <c r="B7" s="93" t="s">
         <v>373</v>
       </c>
       <c r="C7" s="90"/>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="117" t="s">
         <v>374</v>
       </c>
       <c r="E7" s="93" t="s">
@@ -9642,14 +9986,14 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="117" t="s">
         <v>376</v>
       </c>
       <c r="B8" s="93" t="s">
         <v>377</v>
       </c>
       <c r="C8" s="90"/>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="117" t="s">
         <v>378</v>
       </c>
       <c r="E8" s="93" t="s">
@@ -9657,14 +10001,14 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="117" t="s">
         <v>380</v>
       </c>
       <c r="B9" s="93" t="s">
         <v>381</v>
       </c>
       <c r="C9" s="90"/>
-      <c r="D9" s="118" t="s">
+      <c r="D9" s="117" t="s">
         <v>382</v>
       </c>
       <c r="E9" s="93" t="s">
@@ -9672,14 +10016,14 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="117" t="s">
         <v>384</v>
       </c>
       <c r="B10" s="93" t="s">
         <v>385</v>
       </c>
       <c r="C10" s="90"/>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="117" t="s">
         <v>386</v>
       </c>
       <c r="E10" s="93" t="s">
@@ -9687,7 +10031,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="117" t="s">
         <v>388</v>
       </c>
       <c r="B11" s="93" t="s">
@@ -9698,7 +10042,7 @@
       <c r="E11" s="90"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="117" t="s">
         <v>390</v>
       </c>
       <c r="B12" s="93" t="s">
@@ -9713,14 +10057,14 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="117" t="s">
         <v>393</v>
       </c>
       <c r="B13" s="93" t="s">
         <v>394</v>
       </c>
       <c r="C13" s="90"/>
-      <c r="D13" s="118" t="s">
+      <c r="D13" s="117" t="s">
         <v>395</v>
       </c>
       <c r="E13" s="93" t="s">
@@ -9728,14 +10072,14 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="117" t="s">
         <v>397</v>
       </c>
       <c r="B14" s="93" t="s">
         <v>398</v>
       </c>
       <c r="C14" s="90"/>
-      <c r="D14" s="118" t="s">
+      <c r="D14" s="117" t="s">
         <v>399</v>
       </c>
       <c r="E14" s="93" t="s">
@@ -9743,14 +10087,14 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="117" t="s">
         <v>401</v>
       </c>
       <c r="B15" s="93" t="s">
         <v>402</v>
       </c>
       <c r="C15" s="90"/>
-      <c r="D15" s="118" t="s">
+      <c r="D15" s="117" t="s">
         <v>403</v>
       </c>
       <c r="E15" s="93" t="s">
@@ -9758,14 +10102,14 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="117" t="s">
         <v>405</v>
       </c>
       <c r="B16" s="93" t="s">
         <v>406</v>
       </c>
       <c r="C16" s="90"/>
-      <c r="D16" s="118" t="s">
+      <c r="D16" s="117" t="s">
         <v>407</v>
       </c>
       <c r="E16" s="93" t="s">
@@ -9773,14 +10117,14 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="117" t="s">
         <v>409</v>
       </c>
       <c r="B17" s="93" t="s">
         <v>410</v>
       </c>
       <c r="C17" s="90"/>
-      <c r="D17" s="118" t="s">
+      <c r="D17" s="117" t="s">
         <v>411</v>
       </c>
       <c r="E17" s="93" t="s">
@@ -9788,14 +10132,14 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="117" t="s">
         <v>413</v>
       </c>
       <c r="B18" s="93" t="s">
         <v>414</v>
       </c>
       <c r="C18" s="90"/>
-      <c r="D18" s="118" t="s">
+      <c r="D18" s="117" t="s">
         <v>415</v>
       </c>
       <c r="E18" s="93" t="s">
@@ -9803,14 +10147,14 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="117" t="s">
         <v>417</v>
       </c>
       <c r="B19" s="93" t="s">
         <v>418</v>
       </c>
       <c r="C19" s="90"/>
-      <c r="D19" s="118" t="s">
+      <c r="D19" s="117" t="s">
         <v>419</v>
       </c>
       <c r="E19" s="93" t="s">
@@ -9818,14 +10162,14 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="117" t="s">
         <v>421</v>
       </c>
       <c r="B20" s="93" t="s">
         <v>422</v>
       </c>
       <c r="C20" s="90"/>
-      <c r="D20" s="118" t="s">
+      <c r="D20" s="117" t="s">
         <v>423</v>
       </c>
       <c r="E20" s="93" t="s">
@@ -9833,14 +10177,14 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="117" t="s">
         <v>425</v>
       </c>
       <c r="B21" s="93" t="s">
         <v>426</v>
       </c>
       <c r="C21" s="90"/>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="117" t="s">
         <v>427</v>
       </c>
       <c r="E21" s="93" t="s">
@@ -9848,14 +10192,14 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="117" t="s">
         <v>429</v>
       </c>
       <c r="B22" s="93" t="s">
         <v>430</v>
       </c>
       <c r="C22" s="90"/>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="117" t="s">
         <v>431</v>
       </c>
       <c r="E22" s="93" t="s">
@@ -9863,14 +10207,14 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="118" t="s">
+      <c r="A23" s="117" t="s">
         <v>433</v>
       </c>
       <c r="B23" s="93" t="s">
         <v>434</v>
       </c>
       <c r="C23" s="90"/>
-      <c r="D23" s="118" t="s">
+      <c r="D23" s="117" t="s">
         <v>435</v>
       </c>
       <c r="E23" s="93" t="s">
@@ -9878,14 +10222,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="118" t="s">
+      <c r="A24" s="117" t="s">
         <v>437</v>
       </c>
       <c r="B24" s="93" t="s">
         <v>438</v>
       </c>
       <c r="C24" s="90"/>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="117" t="s">
         <v>439</v>
       </c>
       <c r="E24" s="93" t="s">
@@ -9893,7 +10237,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="117" t="s">
         <v>441</v>
       </c>
       <c r="B25" s="93" t="s">
@@ -9904,7 +10248,7 @@
       <c r="E25" s="90"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="117" t="s">
         <v>443</v>
       </c>
       <c r="B26" s="93" t="s">
@@ -9915,7 +10259,7 @@
       <c r="E26" s="90"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="117" t="s">
         <v>445</v>
       </c>
       <c r="B27" s="93" t="s">
@@ -9926,7 +10270,7 @@
       <c r="E27" s="90"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="118" t="s">
+      <c r="A28" s="117" t="s">
         <v>447</v>
       </c>
       <c r="B28" s="93" t="s">
@@ -9937,7 +10281,7 @@
       <c r="E28" s="90"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="118" t="s">
+      <c r="A29" s="117" t="s">
         <v>449</v>
       </c>
       <c r="B29" s="93" t="s">
@@ -9948,7 +10292,7 @@
       <c r="E29" s="90"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="118" t="s">
+      <c r="A30" s="117" t="s">
         <v>451</v>
       </c>
       <c r="B30" s="93" t="s">
@@ -9959,7 +10303,7 @@
       <c r="E30" s="90"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="118" t="s">
+      <c r="A31" s="117" t="s">
         <v>453</v>
       </c>
       <c r="B31" s="93" t="s">
@@ -9970,7 +10314,7 @@
       <c r="E31" s="90"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="118" t="s">
+      <c r="A32" s="117" t="s">
         <v>455</v>
       </c>
       <c r="B32" s="93" t="s">
@@ -9981,7 +10325,7 @@
       <c r="E32" s="90"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="118" t="s">
+      <c r="A33" s="117" t="s">
         <v>457</v>
       </c>
       <c r="B33" s="93" t="s">
@@ -9992,7 +10336,7 @@
       <c r="E33" s="90"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="118" t="s">
+      <c r="A34" s="117" t="s">
         <v>459</v>
       </c>
       <c r="B34" s="93" t="s">
@@ -10003,7 +10347,7 @@
       <c r="E34" s="90"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="118" t="s">
+      <c r="A35" s="117" t="s">
         <v>461</v>
       </c>
       <c r="B35" s="93" t="s">
@@ -10014,7 +10358,7 @@
       <c r="E35" s="90"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="118" t="s">
+      <c r="A36" s="117" t="s">
         <v>463</v>
       </c>
       <c r="B36" s="93" t="s">
@@ -10025,7 +10369,7 @@
       <c r="E36" s="90"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="118" t="s">
+      <c r="A37" s="117" t="s">
         <v>465</v>
       </c>
       <c r="B37" s="93" t="s">
@@ -10036,7 +10380,7 @@
       <c r="E37" s="90"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="118" t="s">
+      <c r="A38" s="117" t="s">
         <v>467</v>
       </c>
       <c r="B38" s="93" t="s">
@@ -10047,7 +10391,7 @@
       <c r="E38" s="90"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="118" t="s">
+      <c r="A39" s="117" t="s">
         <v>469</v>
       </c>
       <c r="B39" s="93" t="s">
@@ -10058,7 +10402,7 @@
       <c r="E39" s="90"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="118" t="s">
+      <c r="A40" s="117" t="s">
         <v>471</v>
       </c>
       <c r="B40" s="93" t="s">
@@ -10069,7 +10413,7 @@
       <c r="E40" s="90"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="118" t="s">
+      <c r="A41" s="117" t="s">
         <v>473</v>
       </c>
       <c r="B41" s="93" t="s">
@@ -10080,7 +10424,7 @@
       <c r="E41" s="90"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="118" t="s">
+      <c r="A42" s="117" t="s">
         <v>475</v>
       </c>
       <c r="B42" s="93" t="s">
@@ -10091,7 +10435,7 @@
       <c r="E42" s="90"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="118" t="s">
+      <c r="A43" s="117" t="s">
         <v>477</v>
       </c>
       <c r="B43" s="93" t="s">
@@ -10102,7 +10446,7 @@
       <c r="E43" s="90"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="118" t="s">
+      <c r="A44" s="117" t="s">
         <v>479</v>
       </c>
       <c r="B44" s="93" t="s">
@@ -10113,7 +10457,7 @@
       <c r="E44" s="90"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="118" t="s">
+      <c r="A45" s="117" t="s">
         <v>481</v>
       </c>
       <c r="B45" s="93" t="s">
@@ -10124,7 +10468,7 @@
       <c r="E45" s="90"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="118" t="s">
+      <c r="A46" s="117" t="s">
         <v>483</v>
       </c>
       <c r="B46" s="93" t="s">
@@ -10135,7 +10479,7 @@
       <c r="E46" s="90"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="118" t="s">
+      <c r="A47" s="117" t="s">
         <v>485</v>
       </c>
       <c r="B47" s="93" t="s">
@@ -10146,7 +10490,7 @@
       <c r="E47" s="90"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="118" t="s">
+      <c r="A48" s="117" t="s">
         <v>487</v>
       </c>
       <c r="B48" s="93" t="s">
@@ -10157,7 +10501,7 @@
       <c r="E48" s="90"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="118" t="s">
+      <c r="A49" s="117" t="s">
         <v>489</v>
       </c>
       <c r="B49" s="93" t="s">
@@ -10168,7 +10512,7 @@
       <c r="E49" s="90"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="118" t="s">
+      <c r="A50" s="117" t="s">
         <v>491</v>
       </c>
       <c r="B50" s="93" t="s">
@@ -10179,7 +10523,7 @@
       <c r="E50" s="90"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="118" t="s">
+      <c r="A51" s="117" t="s">
         <v>493</v>
       </c>
       <c r="B51" s="93" t="s">
@@ -10190,7 +10534,7 @@
       <c r="E51" s="90"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="118" t="s">
+      <c r="A52" s="117" t="s">
         <v>495</v>
       </c>
       <c r="B52" s="93" t="s">
@@ -10201,7 +10545,7 @@
       <c r="E52" s="90"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="118" t="s">
+      <c r="A53" s="117" t="s">
         <v>497</v>
       </c>
       <c r="B53" s="93" t="s">
@@ -10212,7 +10556,7 @@
       <c r="E53" s="90"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="118" t="s">
+      <c r="A54" s="117" t="s">
         <v>499</v>
       </c>
       <c r="B54" s="93" t="s">
@@ -10223,7 +10567,7 @@
       <c r="E54" s="90"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="118" t="s">
+      <c r="A55" s="117" t="s">
         <v>501</v>
       </c>
       <c r="B55" s="93" t="s">
@@ -10234,7 +10578,7 @@
       <c r="E55" s="90"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="118" t="s">
+      <c r="A56" s="117" t="s">
         <v>503</v>
       </c>
       <c r="B56" s="93" t="s">
@@ -10245,7 +10589,7 @@
       <c r="E56" s="90"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="118" t="s">
+      <c r="A57" s="117" t="s">
         <v>505</v>
       </c>
       <c r="B57" s="93" t="s">
@@ -10256,7 +10600,7 @@
       <c r="E57" s="90"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="118" t="s">
+      <c r="A58" s="117" t="s">
         <v>507</v>
       </c>
       <c r="B58" s="93" t="s">
@@ -10267,7 +10611,7 @@
       <c r="E58" s="90"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="118" t="s">
+      <c r="A59" s="117" t="s">
         <v>509</v>
       </c>
       <c r="B59" s="93" t="s">
@@ -10278,7 +10622,7 @@
       <c r="E59" s="90"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="118" t="s">
+      <c r="A60" s="117" t="s">
         <v>511</v>
       </c>
       <c r="B60" s="93" t="s">
@@ -10289,7 +10633,7 @@
       <c r="E60" s="90"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="118" t="s">
+      <c r="A61" s="117" t="s">
         <v>513</v>
       </c>
       <c r="B61" s="93" t="s">
@@ -10300,7 +10644,7 @@
       <c r="E61" s="90"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="118" t="s">
+      <c r="A62" s="117" t="s">
         <v>515</v>
       </c>
       <c r="B62" s="93" t="s">
@@ -10311,7 +10655,7 @@
       <c r="E62" s="90"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="118" t="s">
+      <c r="A63" s="117" t="s">
         <v>517</v>
       </c>
       <c r="B63" s="93" t="s">
@@ -10322,7 +10666,7 @@
       <c r="E63" s="90"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="118" t="s">
+      <c r="A64" s="117" t="s">
         <v>519</v>
       </c>
       <c r="B64" s="93" t="s">
@@ -10333,7 +10677,7 @@
       <c r="E64" s="90"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="118" t="s">
+      <c r="A65" s="117" t="s">
         <v>521</v>
       </c>
       <c r="B65" s="93" t="s">
@@ -10352,7 +10696,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="118" t="s">
+      <c r="A68" s="117" t="s">
         <v>366</v>
       </c>
       <c r="B68" s="93" t="s">
@@ -10360,7 +10704,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="118" t="s">
+      <c r="A69" s="117" t="s">
         <v>370</v>
       </c>
       <c r="B69" s="93" t="s">
@@ -10368,7 +10712,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="118" t="s">
+      <c r="A70" s="117" t="s">
         <v>374</v>
       </c>
       <c r="B70" s="93" t="s">
@@ -10376,7 +10720,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="118" t="s">
+      <c r="A71" s="117" t="s">
         <v>378</v>
       </c>
       <c r="B71" s="93" t="s">
@@ -10384,7 +10728,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="118" t="s">
+      <c r="A72" s="117" t="s">
         <v>382</v>
       </c>
       <c r="B72" s="93" t="s">
@@ -10392,7 +10736,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="118" t="s">
+      <c r="A73" s="117" t="s">
         <v>386</v>
       </c>
       <c r="B73" s="93" t="s">
@@ -10412,7 +10756,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="118" t="s">
+      <c r="A76" s="117" t="s">
         <v>395</v>
       </c>
       <c r="B76" s="93" t="s">
@@ -10420,7 +10764,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="118" t="s">
+      <c r="A77" s="117" t="s">
         <v>399</v>
       </c>
       <c r="B77" s="93" t="s">
@@ -10428,7 +10772,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="118" t="s">
+      <c r="A78" s="117" t="s">
         <v>403</v>
       </c>
       <c r="B78" s="93" t="s">
@@ -10436,7 +10780,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="118" t="s">
+      <c r="A79" s="117" t="s">
         <v>407</v>
       </c>
       <c r="B79" s="93" t="s">
@@ -10444,7 +10788,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="118" t="s">
+      <c r="A80" s="117" t="s">
         <v>411</v>
       </c>
       <c r="B80" s="93" t="s">
@@ -10452,7 +10796,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="118" t="s">
+      <c r="A81" s="117" t="s">
         <v>415</v>
       </c>
       <c r="B81" s="93" t="s">
@@ -10460,7 +10804,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="118" t="s">
+      <c r="A82" s="117" t="s">
         <v>419</v>
       </c>
       <c r="B82" s="93" t="s">
@@ -10468,7 +10812,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="118" t="s">
+      <c r="A83" s="117" t="s">
         <v>423</v>
       </c>
       <c r="B83" s="93" t="s">
@@ -10476,7 +10820,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="118" t="s">
+      <c r="A84" s="117" t="s">
         <v>427</v>
       </c>
       <c r="B84" s="93" t="s">
@@ -10484,7 +10828,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="118" t="s">
+      <c r="A85" s="117" t="s">
         <v>431</v>
       </c>
       <c r="B85" s="93" t="s">
@@ -10492,7 +10836,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="118" t="s">
+      <c r="A86" s="117" t="s">
         <v>435</v>
       </c>
       <c r="B86" s="93" t="s">
@@ -10500,7 +10844,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="118" t="s">
+      <c r="A87" s="117" t="s">
         <v>439</v>
       </c>
       <c r="B87" s="93" t="s">
@@ -12672,6 +13016,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003AD8E391CA616B44B23AF164F23B7D81" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2ef9a79d87727ff0c5146f319a439d8f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f33a324a-c761-4556-ab89-22eef2b1ce0b" xmlns:ns3="3b08d87d-7d4b-4797-b7cd-a7c4de1f44ce" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eabeb9ecbefc35a1dc9712cdea41cb84" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12859,15 +13212,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12885,6 +13229,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C6105D-81FB-48B6-BC11-6EBDD123A930}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5948671-9D0F-43B0-B5BD-95503A73D57B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12904,14 +13256,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C6105D-81FB-48B6-BC11-6EBDD123A930}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB03E680-7482-436B-AF75-43667D9850A9}">
   <ds:schemaRefs>
